--- a/uml/roles.xlsx
+++ b/uml/roles.xlsx
@@ -97,11 +97,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>himl,Kam 培</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>建立聯盟鏈，建立環境，運維等工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>himl,KA FAI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -529,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -538,7 +538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="88.5" customHeight="1">
+    <row r="4" spans="1:4" ht="99" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -591,7 +591,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
